--- a/Modelagem de Banco de Dados/Atividade06/Atividade06.xlsx
+++ b/Modelagem de Banco de Dados/Atividade06/Atividade06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alunos\Desktop\Projetos_da_fatec\Modelagem de Banco de Dados\Atividade06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4403574F-5DF9-47FF-9893-DD91C607E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB4A62-2158-4C52-9698-07D5B2BF2D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{68966FFF-CDD0-41E6-B5C2-D7DC755FE91D}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <t>Ter R$ no começo , e ser xxx.xxx.xxx</t>
   </si>
   <si>
-    <t>Vachar</t>
+    <t>Decimal</t>
   </si>
 </sst>
 </file>
@@ -658,47 +658,10 @@
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -726,6 +689,43 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,464 +1063,457 @@
     <col min="7" max="7" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="6">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E4" s="9">
+        <v>120</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
         <v>11</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11">
+        <v>120</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="44"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="19">
+        <v>100</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="22">
+        <v>120</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="22">
+        <v>500</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="22">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="F20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E21" s="22">
         <v>120</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="F21" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="22">
-        <v>11</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="24" t="s">
+      <c r="E22" s="22">
+        <v>120</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="24">
-        <v>120</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="10" t="s">
+      <c r="E23" s="24">
         <v>30</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="32">
-        <v>120</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B18" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="35">
-        <v>120</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="35">
-        <v>500</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B20" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="35">
-        <v>20</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B21" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="35">
-        <v>120</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="35">
-        <v>120</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="37">
-        <v>30</v>
-      </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="27">
         <v>500</v>
       </c>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39" t="s">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="29">
         <v>10</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="29">
         <v>20</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="29">
         <v>10</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="28" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="31">
         <v>30</v>
       </c>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43" t="s">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30" t="s">
         <v>23</v>
       </c>
       <c r="J32">
